--- a/mathTransformed/HMPSTT_(2019-09-15)_51_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-09-15)_51_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>G H S U Mahagaon</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>S M P U C Hadadi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>S A K H S BadaDavanagere(S)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Davangere</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Govt. Girls H S Aland</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -588,6 +613,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>S V P U CollegeNalatwardMuddebihal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -615,6 +645,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S MallipattanaArakalgudu</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -642,6 +677,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Sri Taralanalu Pre University College</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -667,7 +707,8 @@
           <t>G MALLEGOWDA M E S K R Pet,</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Chikamagaluru</t>
         </is>
@@ -696,6 +737,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Govt. Girls J C ShiralakoppaShikaripur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -723,6 +769,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Zikra High School Girls Basavakalyan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -747,6 +798,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Vanita High School</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -774,6 +830,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>S K A H Comp. P U CollegeBasha Nagar</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Davangere</t>
         </is>
       </c>
@@ -798,6 +859,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S Inam HanchinalBilagi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -825,6 +891,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G G H S Savanur</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Haveri</t>
         </is>
       </c>
@@ -852,6 +923,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>S M S R H SKadur</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Chikamagaluru</t>
         </is>
       </c>
@@ -879,6 +955,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>P N H G K High School AttigereDavanagere South</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -906,6 +987,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>KolagondanahalliKanakapura</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -933,6 +1019,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>S R P U College HortiChadachan</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -955,7 +1046,8 @@
           <t>MAHENDRAKUMAR M G G J C (H S) Kadur,</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Chickmagaluru</t>
         </is>
@@ -984,6 +1076,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G H S AmbalagaAland</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1008,6 +1105,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>S B H S HochihalliKadur</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Chikamagalore</t>
         </is>
       </c>
@@ -1035,6 +1137,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G P U C ArehallyBelur</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1062,6 +1169,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H S KadasikoppaKanakapura</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1089,6 +1201,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S Gokul</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1116,6 +1233,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Govt. High School YanagundaAurad(B)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1143,6 +1265,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G G J C Shikaripura</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1170,6 +1297,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G H S AnnigereKadur</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -1197,6 +1329,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>New English SchoolOld Hubli</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1221,7 +1358,8 @@
           <t>RAGHAVENDRA RAJU NAIK</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>RAGHAVENDRA RAJU NAI</t>
         </is>
@@ -1239,6 +1377,11 @@
         </is>
       </c>
       <c r="F32" t="inlineStr">
+        <is>
+          <t>G H S CheeluruKanakapura</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>Ramanagara</t>
         </is>
@@ -1264,6 +1407,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G P U C (H S) Kamalapur</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1288,6 +1436,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G H S AlurMuddebihal</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Vijayapura</t>
         </is>
       </c>
@@ -1315,6 +1468,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>S G H S Kaladgi</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Bagalkote</t>
         </is>
       </c>
@@ -1342,6 +1500,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G J C Shikaripura</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1369,6 +1532,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Govt. High School MehkarBhalki</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1396,6 +1564,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>G H S Bhunyar(K)Chincholi</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1423,6 +1596,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>G H S Gokul</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1450,6 +1628,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>G J C GendehallyBelur</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1477,6 +1660,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>G H S HarohalliKanakapura</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1504,6 +1692,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>S A M H S BhatagunakiIndi</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1531,6 +1724,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>New English School Hubli</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1558,6 +1756,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>G H S RajolaBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1585,6 +1788,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G J C Boys ShiralkoppaShikaripura</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1609,6 +1817,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>G H S KamanakereKadur</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Chikamagaluru</t>
         </is>
       </c>
@@ -1636,6 +1849,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>D R R High School P B Road</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1663,6 +1881,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>S S H S ShivanapadaShikaripura</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Shimogga</t>
         </is>
       </c>
@@ -1690,6 +1913,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>G J C B S S KonanurArakalagudu</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1717,6 +1945,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>Govt. High SchoolHarsoor</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1741,6 +1974,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>S S H S Shirur</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Bagalakot</t>
         </is>
       </c>
@@ -1768,6 +2006,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>S S M B High School Vinodanagara</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1792,6 +2035,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>Ganodaya High SchoolThenganaykanahalliKanakapura</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1818,6 +2066,11 @@
         </is>
       </c>
       <c r="F54" t="inlineStr">
+        <is>
+          <t>G H S NaronaAland</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>Gulbarga</t>
         </is>

--- a/mathTransformed/HMPSTT_(2019-09-15)_51_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-09-15)_51_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,6 @@
           <t>G MALLEGOWDA M E S K R Pet,</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>Chikamagaluru</t>
@@ -960,7 +959,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1023,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1045,6 @@
           <t>MAHENDRAKUMAR M G G J C (H S) Kadur,</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>Chickmagaluru</t>
@@ -1081,7 +1079,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1300,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1356,6 @@
           <t>RAGHAVENDRA RAJU NAIK</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>RAGHAVENDRA RAJU NAI</t>
@@ -1412,7 +1409,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1470,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Bagalkote</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1566,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1694,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1851,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1947,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1976,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Bagalakot</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2008,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2069,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Gulbarga</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2019-09-15)_51_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-09-15)_51_4.xlsx
@@ -709,7 +709,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chikamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chikamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chickmagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chikamagalore</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Vijayapura</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Chikamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Shimogga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
